--- a/AAII_Financials/Yearly/YEWB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YEWB_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>YEWB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E8" s="3">
         <v>37600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E9" s="3">
         <v>26900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>10700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,15 +848,18 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,20 +920,23 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -925,15 +947,18 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>200</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E17" s="3">
         <v>36900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,26 +1049,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1046,56 +1079,62 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1103,72 +1142,81 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1313,12 +1373,15 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,27 +1442,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1406,39 +1475,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,69 +1708,78 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
         <v>6200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1692,56 +1790,62 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
         <v>12400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E49" s="3">
         <v>35000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E54" s="3">
         <v>49700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>52900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,55 +2137,59 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2067,69 +2200,78 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2157,23 +2299,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -2187,9 +2332,12 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E72" s="3">
         <v>32700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E76" s="3">
         <v>41100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>39200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,8 +2898,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2719,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -2728,11 +2926,14 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E89" s="3">
         <v>32500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,8 +3144,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2937,26 +3157,29 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2400</v>
       </c>
       <c r="H94" s="3">
         <v>-2400</v>
       </c>
       <c r="I94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3218,11 +3466,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3236,39 +3484,45 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YEWB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YEWB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>YEWB</t>
   </si>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="E21" s="3">
-        <v>500</v>
+        <v>11500</v>
       </c>
       <c r="F21" s="3">
-        <v>3500</v>
+        <v>7200</v>
       </c>
       <c r="G21" s="3">
-        <v>2300</v>
+        <v>11100</v>
       </c>
       <c r="H21" s="3">
-        <v>5600</v>
+        <v>13200</v>
       </c>
       <c r="I21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J21" s="3">
         <v>4500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4100</v>
       </c>
       <c r="K21" s="3">
         <v>2400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
-        <v>700</v>
-      </c>
       <c r="G57" s="3">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
         <v>100</v>
       </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
       <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>11000</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>3700</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>8900</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>7700</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>

--- a/AAII_Financials/Yearly/YEWB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YEWB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>YEWB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E8" s="3">
         <v>27900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E9" s="3">
         <v>27100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,15 +864,18 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,9 +942,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,11 +957,11 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -950,15 +972,18 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>200</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E17" s="3">
         <v>26900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,29 +1082,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1082,62 +1115,68 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1145,45 +1184,51 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1191,32 +1236,35 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1403,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1376,12 +1436,15 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,30 +1511,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1478,42 +1547,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,75 +1800,84 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E43" s="3">
         <v>8200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1793,59 +1891,65 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E49" s="3">
         <v>40100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E54" s="3">
         <v>54200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>52900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,61 +2267,65 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2246,32 +2385,35 @@
         <v>10500</v>
       </c>
       <c r="E60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2302,26 +2444,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2335,9 +2480,12 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E72" s="3">
         <v>33700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>32700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>34000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E76" s="3">
         <v>41400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E89" s="3">
         <v>12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,13 +3364,14 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3160,26 +3380,29 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2400</v>
       </c>
       <c r="I94" s="3">
         <v>-2400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5700</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,57 +3665,63 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3487,42 +3735,48 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
